--- a/admin/muenster/sonstige.xlsx
+++ b/admin/muenster/sonstige.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FA797B-2998-4F66-9D39-0D07EFACED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF1204-D671-49ED-92C1-718D749544D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="216">
   <si>
     <t>Kreis</t>
   </si>
@@ -639,6 +639,39 @@
   </si>
   <si>
     <t>Vermessungsraster</t>
+  </si>
+  <si>
+    <t>marienfeld</t>
+  </si>
+  <si>
+    <t>Marienfeld</t>
+  </si>
+  <si>
+    <t>Remser Mark</t>
+  </si>
+  <si>
+    <t>Mellage</t>
+  </si>
+  <si>
+    <t>Oestern Heide</t>
+  </si>
+  <si>
+    <t>Kortenkamp</t>
+  </si>
+  <si>
+    <t>Rubusch</t>
+  </si>
+  <si>
+    <t>Horrmann</t>
+  </si>
+  <si>
+    <t>Westmejer</t>
+  </si>
+  <si>
+    <t>Hinnefeld</t>
+  </si>
+  <si>
+    <t>Boomberg</t>
   </si>
 </sst>
 </file>
@@ -825,7 +858,7 @@
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -924,6 +957,9 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1006,13 +1042,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Flure" displayName="Flure" ref="A1:K2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Flure" displayName="Flure" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kreis">
       <calculatedColumnFormula>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C2,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bürgermeisterei"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Bürgermeisterei" dataDxfId="10">
+      <calculatedColumnFormula>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C2,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Gemeinde"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nr"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name"/>
@@ -1028,7 +1066,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:J2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Gemeinden" displayName="Gemeinden" ref="A1:J2" totalsRowShown="0">
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kreis">
@@ -1362,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1417,7 +1455,194 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C2,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B2" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C2,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C3,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B3" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C3,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C4,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B4" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C4,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C5,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B5" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C5,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C6,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B6" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C6,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C7,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B7" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C7,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C8,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B8" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C8,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C9,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B9" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C9,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C10,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B10" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C10,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C11,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B11" t="str">
+        <f>INDEX(Bürgermeistereien!$C:$C,MATCH(INDEX(Gemeinden[Bürgermeisterei],MATCH(C11,Gemeinden[ID],0)),Bürgermeistereien!$B:$B,0))</f>
+        <v>Harsewinkel</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1509,9 +1734,9 @@
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="e">
+      <c r="B7" s="3">
         <f>SUMPRODUCT(1/COUNTIF(Flure[Gemeinde], Flure[Gemeinde]))</f>
-        <v>#DIV/0!</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1750,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1574,7 +1799,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6" t="str">
+        <f>INDEX(Bürgermeistereien!$A:$A,MATCH(B2,Bürgermeistereien!$B:$B,0))</f>
+        <v>warendorf</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1594,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
